--- a/conversation/Past-Continuous.xlsx
+++ b/conversation/Past-Continuous.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\เบ็ดเตล็ด\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Pictures\Jiw\Project\grammar-police-game\testgame\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24BB3D0-41DB-4D9B-8AE3-DE4F2DEF69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3559106A-A430-44FB-A5CE-FE3330759385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4AC96D1-882F-4CB1-922E-D3B61E8834A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C4AC96D1-882F-4CB1-922E-D3B61E8834A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -53,9 +51,6 @@
     <t>correct</t>
   </si>
   <si>
-    <t>do</t>
-  </si>
-  <si>
     <t>playing</t>
   </si>
   <si>
@@ -74,36 +69,18 @@
     <t>Were</t>
   </si>
   <si>
-    <t>played</t>
-  </si>
-  <si>
-    <t>did</t>
-  </si>
-  <si>
     <t>Were you any good?</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>beaten</t>
-  </si>
-  <si>
     <t>beat</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>eaten</t>
-  </si>
-  <si>
     <t>eating</t>
   </si>
   <si>
-    <t>had</t>
-  </si>
-  <si>
     <t>having</t>
   </si>
   <si>
@@ -114,7 +91,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,7 +101,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -140,7 +117,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,7 +127,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -166,7 +143,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,7 +153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -192,7 +169,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -202,7 +179,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -218,7 +195,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -228,7 +205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -244,7 +221,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -254,7 +231,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -270,7 +247,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -280,7 +257,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -289,9 +266,6 @@
     </r>
   </si>
   <si>
-    <t>tries</t>
-  </si>
-  <si>
     <t>trying</t>
   </si>
   <si>
@@ -302,7 +276,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -312,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -324,14 +298,11 @@
     <t>Was</t>
   </si>
   <si>
-    <t>Did</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -341,7 +312,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -350,9 +321,6 @@
     </r>
   </si>
   <si>
-    <t>knowing</t>
-  </si>
-  <si>
     <t>knew</t>
   </si>
   <si>
@@ -363,7 +331,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -373,7 +341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -382,9 +350,6 @@
     </r>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>studying</t>
   </si>
   <si>
@@ -395,7 +360,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,7 +370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -420,9 +385,6 @@
     <t>Were you scared?</t>
   </si>
   <si>
-    <t>stopping</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
@@ -433,7 +395,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -443,7 +405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -452,9 +414,6 @@
     </r>
   </si>
   <si>
-    <t>studied</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Were you </t>
     </r>
@@ -462,7 +421,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -472,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -488,7 +447,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -498,7 +457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -517,7 +476,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -527,7 +486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -536,9 +495,6 @@
     </r>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Yes, He </t>
     </r>
@@ -546,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -556,7 +512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -565,9 +521,6 @@
     </r>
   </si>
   <si>
-    <t>does</t>
-  </si>
-  <si>
     <t>screaming</t>
   </si>
   <si>
@@ -581,7 +534,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -591,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -603,9 +556,6 @@
     <t>You could hear me from a mile away!</t>
   </si>
   <si>
-    <t>screamed</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">I </t>
     </r>
@@ -613,7 +563,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -623,7 +573,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -639,7 +589,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -649,7 +599,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -658,9 +608,6 @@
     </r>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Were you </t>
     </r>
@@ -668,7 +615,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,7 +625,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -690,9 +637,6 @@
     <t>Yeah, I was trying to meet the deadline</t>
   </si>
   <si>
-    <t>finish</t>
-  </si>
-  <si>
     <t>finishing</t>
   </si>
   <si>
@@ -703,7 +647,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -713,7 +657,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -732,7 +676,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -742,7 +686,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -758,7 +702,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
         <scheme val="major"/>
       </rPr>
@@ -768,7 +712,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
         <scheme val="major"/>
       </rPr>
@@ -783,7 +727,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -793,7 +737,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -812,7 +756,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -822,7 +766,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -838,7 +782,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -848,7 +792,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -857,12 +801,6 @@
     </r>
   </si>
   <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>plans</t>
-  </si>
-  <si>
     <t>planning</t>
   </si>
   <si>
@@ -873,7 +811,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -883,7 +821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -899,7 +837,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -909,7 +847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -924,14 +862,11 @@
     <t>Yeah, my mom gave me some antibiotics. It's almost gone now.</t>
   </si>
   <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -941,7 +876,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -953,9 +888,6 @@
     <t>coming</t>
   </si>
   <si>
-    <t>came</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Yeah, I was </t>
     </r>
@@ -963,7 +895,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -973,7 +905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -986,7 +918,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -996,7 +928,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1008,9 +940,6 @@
     <t>How's that going for you?</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
     <r>
       <t>Yes, I was</t>
     </r>
@@ -1018,7 +947,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +957,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1044,7 +973,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1054,7 +983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1066,9 +995,6 @@
     <t>Yeah, I was on that rollercoaster for hours!</t>
   </si>
   <si>
-    <t>scream</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Were you </t>
     </r>
@@ -1076,7 +1002,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1086,7 +1012,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1111,7 +1037,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1121,7 +1047,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1137,7 +1063,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1147,13 +1073,19 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> watching it live with my family!</t>
     </r>
+  </si>
+  <si>
+    <t>paco</t>
+  </si>
+  <si>
+    <t>err_code</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1096,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1172,28 +1104,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1237,7 +1169,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1569,13 +1501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7277A28-4D31-46B5-8BA9-6E071EED88F6}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1"/>
     <col min="3" max="3" width="33.58203125" style="2" customWidth="1"/>
@@ -1583,7 +1515,7 @@
     <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,8 +1531,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1608,16 +1543,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1625,16 +1563,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1642,16 +1583,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1659,16 +1603,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1676,16 +1623,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" ref="A7" si="0">A6</f>
         <v>2</v>
@@ -1694,16 +1644,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1711,16 +1664,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" ref="A9:A10" si="1">A8</f>
         <v>3</v>
@@ -1729,16 +1685,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1747,16 +1706,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1764,16 +1726,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" ref="A12" si="2">A11</f>
         <v>4</v>
@@ -1782,16 +1747,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -1799,16 +1767,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" ref="A14:A16" si="3">A13</f>
         <v>5</v>
@@ -1817,16 +1788,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1835,16 +1809,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1853,16 +1830,19 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1870,16 +1850,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" ref="A18:A20" si="4">A17</f>
         <v>6</v>
@@ -1888,16 +1871,19 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -1906,16 +1892,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -1924,16 +1913,19 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -1941,16 +1933,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" ref="A22" si="5">A21</f>
         <v>7</v>
@@ -1959,16 +1954,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1976,16 +1974,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" ref="A24:A26" si="6">A23</f>
         <v>8</v>
@@ -1994,16 +1995,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -2012,16 +2016,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -2030,16 +2037,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -2047,16 +2057,19 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <f t="shared" ref="A28:A30" si="7">A27</f>
         <v>9</v>
@@ -2065,16 +2078,19 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -2083,16 +2099,19 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -2101,16 +2120,19 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -2118,16 +2140,19 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <f t="shared" ref="A32:A33" si="8">A31</f>
         <v>10</v>
@@ -2136,16 +2161,19 @@
         <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -2154,16 +2182,19 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -2171,16 +2202,19 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <f t="shared" ref="A35:A37" si="9">A34</f>
         <v>11</v>
@@ -2189,16 +2223,19 @@
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <f t="shared" si="9"/>
         <v>11</v>
@@ -2207,16 +2244,19 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <f t="shared" si="9"/>
         <v>11</v>
@@ -2225,16 +2265,19 @@
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -2242,16 +2285,19 @@
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <f t="shared" ref="A39:A41" si="10">A38</f>
         <v>12</v>
@@ -2260,16 +2306,19 @@
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -2278,16 +2327,19 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -2296,16 +2348,19 @@
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>13</v>
       </c>
@@ -2313,16 +2368,19 @@
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <f t="shared" ref="A43:A45" si="11">A42</f>
         <v>13</v>
@@ -2331,16 +2389,19 @@
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <f t="shared" si="11"/>
         <v>13</v>
@@ -2349,16 +2410,19 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <f t="shared" si="11"/>
         <v>13</v>
@@ -2367,16 +2431,19 @@
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>14</v>
       </c>
@@ -2384,16 +2451,19 @@
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <f t="shared" ref="A47:A49" si="12">A46</f>
         <v>14</v>
@@ -2402,16 +2472,19 @@
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <f t="shared" si="12"/>
         <v>14</v>
@@ -2420,16 +2493,19 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <f t="shared" si="12"/>
         <v>14</v>
@@ -2438,16 +2514,19 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>15</v>
       </c>
@@ -2455,34 +2534,40 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <f t="shared" ref="A51:A53" si="13">A50</f>
+        <v>15</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <f t="shared" ref="A51:A82" si="13">A50</f>
-        <v>15</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -2491,16 +2576,19 @@
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -2509,13 +2597,16 @@
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
